--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="25600" windowHeight="11580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm"/>
+    <numFmt numFmtId="164" formatCode="mm"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -218,21 +218,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -516,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,62 +532,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>120</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>78</v>
       </c>
-      <c r="E3" s="7">
-        <v>0.73907407407407411</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0.74288194444444444</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="E3" s="5">
+        <v>0.66312499999999996</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.66562500000000002</v>
+      </c>
+      <c r="G3" s="5">
         <f>F3-E3</f>
-        <v>3.8078703703703365E-3</v>
-      </c>
-      <c r="H3" s="9">
+        <v>2.5000000000000577E-3</v>
+      </c>
+      <c r="H3" s="7">
         <f>HOUR(G3)*3600+MINUTE(G3)*60+SECOND(G3)</f>
-        <v>329</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4">
@@ -595,10 +596,10 @@
       <c r="C4">
         <v>93</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>8</v>
       </c>
       <c r="B5">
@@ -607,10 +608,10 @@
       <c r="C5">
         <v>96</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>16</v>
       </c>
       <c r="B6">
@@ -622,25 +623,25 @@
     </row>
     <row r="7" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:8" ht="38" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11">
@@ -648,7 +649,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>4</v>
       </c>
       <c r="B12">
@@ -656,7 +657,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>8</v>
       </c>
       <c r="B13">
@@ -664,7 +665,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>16</v>
       </c>
       <c r="B14">
@@ -673,58 +674,64 @@
     </row>
     <row r="15" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:3" ht="38" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>1</v>
       </c>
-      <c r="B19" s="4">
-        <v>201</v>
-      </c>
-      <c r="C19" s="4"/>
+      <c r="B19" s="3">
+        <v>128</v>
+      </c>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>4</v>
       </c>
-      <c r="B20" s="4">
-        <v>236</v>
-      </c>
-      <c r="C20" s="4"/>
+      <c r="B20" s="3">
+        <v>146</v>
+      </c>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>8</v>
       </c>
-      <c r="B21" s="4">
-        <v>329</v>
-      </c>
-      <c r="C21" s="4"/>
+      <c r="B21" s="3">
+        <v>351</v>
+      </c>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>16</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="B22" s="3">
+        <v>159</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
